--- a/Pós-Defesa/Gráficos.xlsx
+++ b/Pós-Defesa/Gráficos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Datago\Projetos\Mestrado-Luan\Pós-Defesa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A735002B-8DF8-4CED-AA6C-699C9BD02177}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B58007-7BEB-40FD-9C61-706E21C5681D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A89F4C00-6165-448A-9E88-4A61AA753D7B}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +110,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -131,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -206,12 +212,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,9 +258,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -258,6 +272,25 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -323,10 +356,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tabela 1'!$B$17:$B$26</c:f>
+              <c:f>'Tabela 1'!$B$17:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -356,45 +389,57 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tabela 1'!$C$17:$C$26</c:f>
+              <c:f>'Tabela 1'!$C$17:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.60302342546810406</c:v>
+                  <c:v>0.60342523988825458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3854502715408934</c:v>
+                  <c:v>1.0243215690082028E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30136986301369856</c:v>
+                  <c:v>0.31108704541675847</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22887374439615665</c:v>
+                  <c:v>0.46892098893553025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3092657667752195</c:v>
+                  <c:v>0.31338191304595753</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6870389884088592E-2</c:v>
+                  <c:v>0.36364825137908824</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0579557428881319E-4</c:v>
+                  <c:v>0.11340891883034596</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28529402721837599</c:v>
+                  <c:v>0.18290308458817725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6374189704010509E-2</c:v>
+                  <c:v>0.32867956741971877</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.8750092671763588E-3</c:v>
+                  <c:v>9.8612959692326349E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16321943369587255</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17494448605253124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,10 +467,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tabela 1'!$B$17:$B$26</c:f>
+              <c:f>'Tabela 1'!$B$17:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -455,45 +500,57 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tabela 1'!$D$17:$D$26</c:f>
+              <c:f>'Tabela 1'!$D$17:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.59732511955904999</c:v>
+                  <c:v>0.59773270172881487</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4225500526870391</c:v>
+                  <c:v>1.3948897195656862E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24426972161429478</c:v>
+                  <c:v>0.35368632015062534</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22620509910774969</c:v>
+                  <c:v>0.45469968089833179</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45771447916120339</c:v>
+                  <c:v>0.34350862103785085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48731458215125234</c:v>
+                  <c:v>0.36503016478025802</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51894301694090939</c:v>
+                  <c:v>1.2884405204130856E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39275462374186998</c:v>
+                  <c:v>0.27504186673522862</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18011299781584281</c:v>
+                  <c:v>2.0213502672049896E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13175206472690254</c:v>
+                  <c:v>2.3249978927807575E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7879525302579944E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9777681422208115E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -521,10 +578,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tabela 1'!$B$17:$B$26</c:f>
+              <c:f>'Tabela 1'!$B$17:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -554,45 +611,57 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tabela 1'!$E$17:$E$26</c:f>
+              <c:f>'Tabela 1'!$E$17:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.59734943665396778</c:v>
+                  <c:v>0.59775699421029194</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39766555888789812</c:v>
+                  <c:v>1.4919818114147944E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23670440319544636</c:v>
+                  <c:v>0.34708073641024728</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20971935578403916</c:v>
+                  <c:v>0.46423855257720431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44506482174615825</c:v>
+                  <c:v>0.34750017225444241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49016130339628744</c:v>
+                  <c:v>0.37356703167907329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50842182053983942</c:v>
+                  <c:v>2.1450331029606168E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38388028163109017</c:v>
+                  <c:v>0.27748229784099671</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17254402818154135</c:v>
+                  <c:v>1.3146834263215352E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12749163482876738</c:v>
+                  <c:v>2.9473626436094389E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4050341716772891E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.3317106179457752E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,10 +689,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tabela 1'!$B$17:$B$26</c:f>
+              <c:f>'Tabela 1'!$B$17:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -653,45 +722,57 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tabela 1'!$F$17:$F$26</c:f>
+              <c:f>'Tabela 1'!$F$17:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.59732106670989704</c:v>
+                  <c:v>0.59772865298190203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37991407959795748</c:v>
+                  <c:v>1.5809828956098282E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23098538272405486</c:v>
+                  <c:v>0.34132893560229899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19815938296930438</c:v>
+                  <c:v>0.47104315484975501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4362534508818523</c:v>
+                  <c:v>0.3505175949003182</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49088108940585229</c:v>
+                  <c:v>0.37955317057105631</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50058361027802545</c:v>
+                  <c:v>2.7417097303815974E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37682133643399596</c:v>
+                  <c:v>0.27809935445316147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16604851589045475</c:v>
+                  <c:v>7.8822207413795399E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12428889866404381</c:v>
+                  <c:v>3.4424121485599327E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9345991693063057E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.597783383920007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,6 +799,7 @@
         <c:axId val="907468856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="12"/>
           <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -931,40 +1013,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.60302342546810406</c:v>
+                  <c:v>0.60342523988825458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.107481559537202E-4</c:v>
+                  <c:v>1.6020195155104647E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24015833130690881</c:v>
+                  <c:v>0.24177335208660061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2879144038258869E-2</c:v>
+                  <c:v>3.9382800824009315E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5305465624687169E-2</c:v>
+                  <c:v>1.1853481559270948E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17258004377077088</c:v>
+                  <c:v>0.17602767701325894</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0315311664099936E-2</c:v>
+                  <c:v>3.4355723236325006E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3765180715146283E-2</c:v>
+                  <c:v>3.7964269086714575E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5665072545999842E-2</c:v>
+                  <c:v>4.1396086219887718E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.9487809338348254E-2</c:v>
+                  <c:v>9.7222194997167402E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.463963578559632E-2</c:v>
+                  <c:v>8.2450501747207347E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10692730600722722</c:v>
+                  <c:v>0.11329690435833752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,40 +1124,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.60299100267488048</c:v>
+                  <c:v>0.60339284991295195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7286212207181144E-4</c:v>
+                  <c:v>1.4401993624286896E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22965244566930559</c:v>
+                  <c:v>0.23128979639523864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1849595650357539E-2</c:v>
+                  <c:v>5.8289652343859161E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6811027564142417E-2</c:v>
+                  <c:v>7.3149927890726552E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19344249007051964</c:v>
+                  <c:v>0.1968031951904248</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6902002107481541E-2</c:v>
+                  <c:v>4.0914968737438037E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6024462438473689E-2</c:v>
+                  <c:v>7.0044264083552896E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8334059925208471E-2</c:v>
+                  <c:v>5.3989782185462451E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.9415648924760352E-2</c:v>
+                  <c:v>9.7150647553371342E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7530655162631149E-2</c:v>
+                  <c:v>8.5317118344828136E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10643848317696784</c:v>
+                  <c:v>0.11281156792410675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1153,40 +1235,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.59732106670989704</c:v>
+                  <c:v>0.59772865298190203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0102131798654402E-2</c:v>
+                  <c:v>2.1878084696668156E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29768627345023557</c:v>
+                  <c:v>0.29917902030655308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45847700163984506</c:v>
+                  <c:v>0.46029250468398991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38887802831272733</c:v>
+                  <c:v>0.3909558102017397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39940017832536273</c:v>
+                  <c:v>0.40190271394231153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3390613601361846E-2</c:v>
+                  <c:v>5.7334876685216016E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28454494889217469</c:v>
+                  <c:v>0.27740586064804845</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13092017201606232</c:v>
+                  <c:v>0.1241991472088292</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.3400979602326916E-2</c:v>
+                  <c:v>6.4282927995828743E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13878243953401445</c:v>
+                  <c:v>0.12917010109958407</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.31816741892447409</c:v>
+                  <c:v>0.30876594794171375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,40 +1346,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.59732106670989704</c:v>
+                  <c:v>0.59772865298190203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0077814703736731E-2</c:v>
+                  <c:v>2.1853811673705932E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28439292822854473</c:v>
+                  <c:v>0.28591392969322238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47365336292952409</c:v>
+                  <c:v>0.47541798589986989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38954794043742164</c:v>
+                  <c:v>0.39162344466118154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40622679743859935</c:v>
+                  <c:v>0.40870088839596341</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7552079111615473E-2</c:v>
+                  <c:v>6.1479002503910835E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28474619381563188</c:v>
+                  <c:v>0.27760598711685869</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12569528270265889</c:v>
+                  <c:v>0.11900530925657342</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4003963880253321E-2</c:v>
+                  <c:v>6.4880790197412261E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13657589826493796</c:v>
+                  <c:v>0.12698218500482672</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3214179666789907</c:v>
+                  <c:v>0.31199331204751218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,40 +1457,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.59732511955904999</c:v>
+                  <c:v>0.59773270172881487</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0296668557996195E-2</c:v>
+                  <c:v>2.2072268880366373E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15083353597579094</c:v>
+                  <c:v>0.14838747365630289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13298021586098113</c:v>
+                  <c:v>0.12918180095140153</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38164726861807391</c:v>
+                  <c:v>0.37694974209352111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4900688984356002</c:v>
+                  <c:v>0.48386018781752932</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66065818270243981</c:v>
+                  <c:v>0.65373867307254574</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51856065158634113</c:v>
+                  <c:v>0.51012097922993005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3812328986196214</c:v>
+                  <c:v>0.37302427275380112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58032096556564372</c:v>
+                  <c:v>0.56689685994930927</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.52045463756433874</c:v>
+                  <c:v>0.50762064571208632</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.51026486587975295</c:v>
+                  <c:v>0.49949331204751218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1650,40 +1732,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.12755937424009078</c:v>
+                  <c:v>0.56377747718994287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0003242279322373E-2</c:v>
+                  <c:v>0.63199980546245227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3782118829537086E-2</c:v>
+                  <c:v>0.62951134599718728</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14065159682256631</c:v>
+                  <c:v>0.42966553354036952</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3339682797006357E-3</c:v>
+                  <c:v>0.39558920829267752</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4100064845586442E-2</c:v>
+                  <c:v>0.37352917037762062</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7277751884574865E-2</c:v>
+                  <c:v>0.35551334651045335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1135962956958757E-2</c:v>
+                  <c:v>0.3469851102700478</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9769613947696107E-2</c:v>
+                  <c:v>0.36632773730711921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8770218190660801E-2</c:v>
+                  <c:v>0.36568167554480568</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2517090150103432E-2</c:v>
+                  <c:v>0.23984261320619296</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.6778829179555905E-2</c:v>
+                  <c:v>0.30009037890240292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1761,40 +1843,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.13419996757720681</c:v>
+                  <c:v>0.56709779067941302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4644159844370676E-2</c:v>
+                  <c:v>0.63785619622353984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.381839182945613E-2</c:v>
+                  <c:v>0.63752588767888341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11550873388992458</c:v>
+                  <c:v>0.44223715607252689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8755370025126737E-3</c:v>
+                  <c:v>0.40231502731160762</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2956418362108546E-2</c:v>
+                  <c:v>0.38021547343666251</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1157544378698186E-2</c:v>
+                  <c:v>0.36543359791493901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.29927251357705E-2</c:v>
+                  <c:v>0.36430424182717186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9128011082700245E-2</c:v>
+                  <c:v>0.37237749537634135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9014715526833598E-2</c:v>
+                  <c:v>0.37230425519499155</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8550741242150447E-2</c:v>
+                  <c:v>0.25715178312595166</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3810883294402652E-2</c:v>
+                  <c:v>0.31501961586940042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1872,40 +1954,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.12950879468266191</c:v>
+                  <c:v>0.56475219234919527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1287995460808907E-2</c:v>
+                  <c:v>0.63251370881781965</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.073427494528658E-2</c:v>
+                  <c:v>0.63229221971394878</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13142224608900047</c:v>
+                  <c:v>0.43428027904290517</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3342249601469821E-3</c:v>
+                  <c:v>0.39678907495164362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6218691740293485E-2</c:v>
+                  <c:v>0.37225797234490743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3766971305827906E-2</c:v>
+                  <c:v>0.35767385380879047</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5014488935721741E-2</c:v>
+                  <c:v>0.3569061410783208</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7570022180138079E-2</c:v>
+                  <c:v>0.36490580598140049</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7492649605399906E-2</c:v>
+                  <c:v>0.36485578829657628</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1140283808334739E-2</c:v>
+                  <c:v>0.24805926209460649</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.547996218382926E-2</c:v>
+                  <c:v>0.30743467793903678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1983,40 +2065,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.13419996757720681</c:v>
+                  <c:v>0.56709779067941302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4644159844370676E-2</c:v>
+                  <c:v>0.63785619622353984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.381839182945613E-2</c:v>
+                  <c:v>0.63752588767888341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11549606873632154</c:v>
+                  <c:v>0.44224348874557351</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8772256896597939E-3</c:v>
+                  <c:v>0.4023160405413484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.295304098781443E-2</c:v>
+                  <c:v>0.38021749989614395</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1157544378698186E-2</c:v>
+                  <c:v>0.36543359791493901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.29927251357705E-2</c:v>
+                  <c:v>0.36430424182717186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9128011082700245E-2</c:v>
+                  <c:v>0.37237749537634135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9035900874678503E-2</c:v>
+                  <c:v>0.37231795051345529</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8549961848690002E-2</c:v>
+                  <c:v>0.25715234602578652</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3810883294402652E-2</c:v>
+                  <c:v>0.31501961586940042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2094,40 +2176,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.13728519899489347</c:v>
+                  <c:v>0.56864041420328182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10331219097025213</c:v>
+                  <c:v>0.64132342272603848</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1022761814055281</c:v>
+                  <c:v>0.64090901722062588</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10527680959714679</c:v>
+                  <c:v>0.4473531959734332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8950312069384788E-3</c:v>
+                  <c:v>0.40592678604539473</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3954364918537748E-2</c:v>
+                  <c:v>0.38561679853851744</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2989026910918368E-2</c:v>
+                  <c:v>0.3704604405813729</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5296997851989994E-2</c:v>
+                  <c:v>0.36904013305981453</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7180285467956736E-2</c:v>
+                  <c:v>0.37758290728983934</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.703751464552308E-2</c:v>
+                  <c:v>0.37749061275236595</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.03538602189005E-2</c:v>
+                  <c:v>0.26307180068842645</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5990449312536028E-2</c:v>
+                  <c:v>0.32010292252136868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2697,7 +2779,7 @@
   <dimension ref="B1:G40"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2728,219 +2810,245 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="16">
         <v>0.97950000000000004</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="17">
         <v>0.99356</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="17">
         <v>0.99350000000000005</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="17">
         <v>0.99356999999999995</v>
       </c>
-      <c r="G3" s="3">
-        <v>2.4674</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="17">
+        <v>2.4699</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
-        <v>17.092300000000002</v>
-      </c>
-      <c r="D4" s="3">
-        <v>17.55</v>
-      </c>
-      <c r="E4" s="3">
-        <v>17.242999999999999</v>
-      </c>
-      <c r="F4" s="3">
-        <v>17.024000000000001</v>
-      </c>
-      <c r="G4" s="3">
-        <v>12.337</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="18">
+        <v>12.486000000000001</v>
+      </c>
+      <c r="D4" s="19">
+        <v>12.186999999999999</v>
+      </c>
+      <c r="E4" s="19">
+        <v>12.175000000000001</v>
+      </c>
+      <c r="F4" s="19">
+        <v>12.164</v>
+      </c>
+      <c r="G4" s="19">
+        <v>12.359400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
-        <v>28.899000000000001</v>
-      </c>
-      <c r="D5" s="3">
-        <v>27.631</v>
-      </c>
-      <c r="E5" s="3">
-        <v>27.463000000000001</v>
-      </c>
-      <c r="F5" s="3">
-        <v>27.335999999999999</v>
-      </c>
-      <c r="G5" s="3">
-        <v>22.206600000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="18">
+        <v>15.331</v>
+      </c>
+      <c r="D5" s="19">
+        <v>14.382999999999999</v>
+      </c>
+      <c r="E5" s="19">
+        <v>14.53</v>
+      </c>
+      <c r="F5" s="19">
+        <v>14.657999999999999</v>
+      </c>
+      <c r="G5" s="19">
+        <v>22.253900000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
-        <v>39.4176</v>
-      </c>
-      <c r="D6" s="3">
-        <v>39.332000000000001</v>
-      </c>
-      <c r="E6" s="3">
-        <v>38.803199999999997</v>
-      </c>
-      <c r="F6" s="3">
-        <v>38.432400000000001</v>
-      </c>
-      <c r="G6" s="3">
-        <v>32.0762</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="18">
+        <v>17.092300000000002</v>
+      </c>
+      <c r="D6" s="19">
+        <v>17.55</v>
+      </c>
+      <c r="E6" s="19">
+        <v>17.242999999999999</v>
+      </c>
+      <c r="F6" s="19">
+        <v>17.024000000000001</v>
+      </c>
+      <c r="G6" s="19">
+        <v>32.184100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
-        <v>54.918199999999999</v>
-      </c>
-      <c r="D7" s="3">
-        <v>61.145000000000003</v>
-      </c>
-      <c r="E7" s="3">
-        <v>60.614400000000003</v>
-      </c>
-      <c r="F7" s="3">
-        <v>60.244799999999998</v>
-      </c>
-      <c r="G7" s="3">
-        <v>41.945799999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="18">
+        <v>28.899000000000001</v>
+      </c>
+      <c r="D7" s="19">
+        <v>27.631</v>
+      </c>
+      <c r="E7" s="19">
+        <v>27.463000000000001</v>
+      </c>
+      <c r="F7" s="19">
+        <v>27.335999999999999</v>
+      </c>
+      <c r="G7" s="19">
+        <v>42.088900000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
-        <v>58.793799999999997</v>
-      </c>
-      <c r="D8" s="3">
-        <v>91.745000000000005</v>
-      </c>
-      <c r="E8" s="3">
-        <v>91.920599999999993</v>
-      </c>
-      <c r="F8" s="3">
-        <v>91.965000000000003</v>
-      </c>
-      <c r="G8" s="3">
-        <v>61.685000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="18">
+        <v>39.4176</v>
+      </c>
+      <c r="D8" s="19">
+        <v>39.332000000000001</v>
+      </c>
+      <c r="E8" s="19">
+        <v>38.803199999999997</v>
+      </c>
+      <c r="F8" s="19">
+        <v>38.432400000000001</v>
+      </c>
+      <c r="G8" s="19">
+        <v>61.943100000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
-        <v>61.653799999999997</v>
-      </c>
-      <c r="D9" s="3">
-        <v>93.695999999999998</v>
-      </c>
-      <c r="E9" s="3">
-        <v>93.046999999999997</v>
-      </c>
-      <c r="F9" s="3">
-        <v>92.563500000000005</v>
-      </c>
-      <c r="G9" s="3">
-        <v>61.685000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="18">
+        <v>54.918199999999999</v>
+      </c>
+      <c r="D9" s="19">
+        <v>61.145000000000003</v>
+      </c>
+      <c r="E9" s="19">
+        <v>60.614400000000003</v>
+      </c>
+      <c r="F9" s="19">
+        <v>60.244799999999998</v>
+      </c>
+      <c r="G9" s="19">
+        <v>61.943100000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
-        <v>91.968699999999998</v>
-      </c>
-      <c r="D10" s="3">
-        <v>99.658000000000001</v>
-      </c>
-      <c r="E10" s="3">
-        <v>99.022999999999996</v>
-      </c>
-      <c r="F10" s="3">
-        <v>98.517899999999997</v>
-      </c>
-      <c r="G10" s="3">
-        <v>71.554599999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="18">
+        <v>58.793799999999997</v>
+      </c>
+      <c r="D10" s="19">
+        <v>91.745000000000005</v>
+      </c>
+      <c r="E10" s="19">
+        <v>91.920599999999993</v>
+      </c>
+      <c r="F10" s="19">
+        <v>91.965000000000003</v>
+      </c>
+      <c r="G10" s="19">
+        <v>71.954499999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="3">
-        <v>93.701599999999999</v>
-      </c>
-      <c r="D11" s="3">
-        <v>107.73699999999999</v>
-      </c>
-      <c r="E11" s="3">
-        <v>107.04600000000001</v>
-      </c>
-      <c r="F11" s="3">
-        <v>106.453</v>
-      </c>
-      <c r="G11" s="3">
-        <v>91.293800000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="18">
+        <v>61.653799999999997</v>
+      </c>
+      <c r="D11" s="19">
+        <v>93.695999999999998</v>
+      </c>
+      <c r="E11" s="19">
+        <v>93.046999999999997</v>
+      </c>
+      <c r="F11" s="19">
+        <v>92.563500000000005</v>
+      </c>
+      <c r="G11" s="19">
+        <v>91.839600000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="18">
+        <v>91.968699999999998</v>
+      </c>
+      <c r="D12" s="19">
+        <v>99.658000000000001</v>
+      </c>
+      <c r="E12" s="19">
+        <v>99.022999999999996</v>
+      </c>
+      <c r="F12" s="19">
+        <v>98.517899999999997</v>
+      </c>
+      <c r="G12" s="19">
+        <v>102.03019999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="20">
+        <v>11</v>
+      </c>
+      <c r="C13" s="18">
+        <v>93.701599999999999</v>
+      </c>
+      <c r="D13" s="19">
+        <v>107.73699999999999</v>
+      </c>
+      <c r="E13" s="19">
+        <v>107.04600000000001</v>
+      </c>
+      <c r="F13" s="19">
+        <v>106.453</v>
+      </c>
+      <c r="G13" s="19">
+        <v>111.9787</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="20">
+        <v>12</v>
+      </c>
+      <c r="C14" s="18">
         <v>100.468</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D14" s="19">
         <v>114.492</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E14" s="19">
         <v>114.06100000000001</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F14" s="19">
         <v>113.73699999999999</v>
       </c>
-      <c r="G12" s="3">
-        <v>101.1635</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="19">
+        <v>121.77119999999999</v>
+      </c>
     </row>
     <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -2964,210 +3072,252 @@
       <c r="B17" s="5">
         <v>1</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <f t="shared" ref="C17:F26" si="0">ABS((C3-$G3)/$G3)</f>
-        <v>0.60302342546810406</v>
-      </c>
-      <c r="D17" s="12">
+        <v>0.60342523988825458</v>
+      </c>
+      <c r="D17" s="11">
         <f t="shared" ref="D17:F17" si="1">ABS((D3-$G3)/$G3)</f>
-        <v>0.59732511955904999</v>
-      </c>
-      <c r="E17" s="12">
-        <f t="shared" si="1"/>
-        <v>0.59734943665396778</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="1"/>
-        <v>0.59732106670989704</v>
+        <v>0.59773270172881487</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="1"/>
+        <v>0.59775699421029194</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="1"/>
+        <v>0.59772865298190203</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5">
         <v>2</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <f t="shared" si="0"/>
-        <v>0.3854502715408934</v>
-      </c>
-      <c r="D18" s="12">
+        <v>1.0243215690082028E-2</v>
+      </c>
+      <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>0.4225500526870391</v>
-      </c>
-      <c r="E18" s="12">
+        <v>1.3948897195656862E-2</v>
+      </c>
+      <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>0.39766555888789812</v>
-      </c>
-      <c r="F18" s="12">
+        <v>1.4919818114147944E-2</v>
+      </c>
+      <c r="F18" s="11">
         <f t="shared" si="0"/>
-        <v>0.37991407959795748</v>
+        <v>1.5809828956098282E-2</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
         <v>3</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <f t="shared" si="0"/>
-        <v>0.30136986301369856</v>
-      </c>
-      <c r="D19" s="12">
+        <v>0.31108704541675847</v>
+      </c>
+      <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>0.24426972161429478</v>
-      </c>
-      <c r="E19" s="12">
+        <v>0.35368632015062534</v>
+      </c>
+      <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>0.23670440319544636</v>
-      </c>
-      <c r="F19" s="12">
+        <v>0.34708073641024728</v>
+      </c>
+      <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>0.23098538272405486</v>
+        <v>0.34132893560229899</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5">
         <v>4</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <f t="shared" si="0"/>
-        <v>0.22887374439615665</v>
-      </c>
-      <c r="D20" s="12">
+        <v>0.46892098893553025</v>
+      </c>
+      <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>0.22620509910774969</v>
-      </c>
-      <c r="E20" s="12">
+        <v>0.45469968089833179</v>
+      </c>
+      <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>0.20971935578403916</v>
-      </c>
-      <c r="F20" s="12">
+        <v>0.46423855257720431</v>
+      </c>
+      <c r="F20" s="11">
         <f t="shared" si="0"/>
-        <v>0.19815938296930438</v>
+        <v>0.47104315484975501</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5">
         <v>5</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <f t="shared" si="0"/>
-        <v>0.3092657667752195</v>
-      </c>
-      <c r="D21" s="12">
+        <v>0.31338191304595753</v>
+      </c>
+      <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>0.45771447916120339</v>
-      </c>
-      <c r="E21" s="12">
+        <v>0.34350862103785085</v>
+      </c>
+      <c r="E21" s="11">
         <f t="shared" si="0"/>
-        <v>0.44506482174615825</v>
-      </c>
-      <c r="F21" s="12">
+        <v>0.34750017225444241</v>
+      </c>
+      <c r="F21" s="11">
         <f t="shared" si="0"/>
-        <v>0.4362534508818523</v>
+        <v>0.3505175949003182</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="5">
         <v>6</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <f t="shared" si="0"/>
-        <v>4.6870389884088592E-2</v>
-      </c>
-      <c r="D22" s="12">
+        <v>0.36364825137908824</v>
+      </c>
+      <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>0.48731458215125234</v>
-      </c>
-      <c r="E22" s="12">
+        <v>0.36503016478025802</v>
+      </c>
+      <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>0.49016130339628744</v>
-      </c>
-      <c r="F22" s="12">
+        <v>0.37356703167907329</v>
+      </c>
+      <c r="F22" s="11">
         <f t="shared" si="0"/>
-        <v>0.49088108940585229</v>
+        <v>0.37955317057105631</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
         <v>7</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <f t="shared" si="0"/>
-        <v>5.0579557428881319E-4</v>
-      </c>
-      <c r="D23" s="12">
+        <v>0.11340891883034596</v>
+      </c>
+      <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>0.51894301694090939</v>
-      </c>
-      <c r="E23" s="12">
+        <v>1.2884405204130856E-2</v>
+      </c>
+      <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>0.50842182053983942</v>
-      </c>
-      <c r="F23" s="12">
+        <v>2.1450331029606168E-2</v>
+      </c>
+      <c r="F23" s="11">
         <f t="shared" si="0"/>
-        <v>0.50058361027802545</v>
+        <v>2.7417097303815974E-2</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5">
         <v>8</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <f t="shared" si="0"/>
-        <v>0.28529402721837599</v>
-      </c>
-      <c r="D24" s="12">
+        <v>0.18290308458817725</v>
+      </c>
+      <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>0.39275462374186998</v>
-      </c>
-      <c r="E24" s="12">
+        <v>0.27504186673522862</v>
+      </c>
+      <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>0.38388028163109017</v>
-      </c>
-      <c r="F24" s="12">
+        <v>0.27748229784099671</v>
+      </c>
+      <c r="F24" s="11">
         <f t="shared" si="0"/>
-        <v>0.37682133643399596</v>
+        <v>0.27809935445316147</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="5">
         <v>9</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <f t="shared" si="0"/>
-        <v>2.6374189704010509E-2</v>
-      </c>
-      <c r="D25" s="12">
+        <v>0.32867956741971877</v>
+      </c>
+      <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>0.18011299781584281</v>
-      </c>
-      <c r="E25" s="12">
+        <v>2.0213502672049896E-2</v>
+      </c>
+      <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>0.17254402818154135</v>
-      </c>
-      <c r="F25" s="12">
+        <v>1.3146834263215352E-2</v>
+      </c>
+      <c r="F25" s="11">
         <f t="shared" si="0"/>
-        <v>0.16604851589045475</v>
+        <v>7.8822207413795399E-3</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="5">
         <v>10</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <f t="shared" si="0"/>
-        <v>6.8750092671763588E-3</v>
-      </c>
-      <c r="D26" s="12">
+        <v>9.8612959692326349E-2</v>
+      </c>
+      <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>0.13175206472690254</v>
-      </c>
-      <c r="E26" s="12">
+        <v>2.3249978927807575E-2</v>
+      </c>
+      <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>0.12749163482876738</v>
-      </c>
-      <c r="F26" s="12">
+        <v>2.9473626436094389E-2</v>
+      </c>
+      <c r="F26" s="11">
         <f t="shared" si="0"/>
-        <v>0.12428889866404381</v>
+        <v>3.4424121485599327E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="20">
+        <v>11</v>
+      </c>
+      <c r="C27" s="11">
+        <f t="shared" ref="C27:F27" si="2">ABS((C13-$G13)/$G13)</f>
+        <v>0.16321943369587255</v>
+      </c>
+      <c r="D27" s="11">
+        <f t="shared" si="2"/>
+        <v>3.7879525302579944E-2</v>
+      </c>
+      <c r="E27" s="11">
+        <f t="shared" si="2"/>
+        <v>4.4050341716772891E-2</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="2"/>
+        <v>4.9345991693063057E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="20">
+        <v>12</v>
+      </c>
+      <c r="C28" s="11">
+        <f t="shared" ref="C28:F28" si="3">ABS((C14-$G14)/$G14)</f>
+        <v>0.17494448605253124</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="3"/>
+        <v>5.9777681422208115E-2</v>
+      </c>
+      <c r="E28" s="11">
+        <f t="shared" si="3"/>
+        <v>6.3317106179457752E-2</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" si="3"/>
+        <v>6.597783383920007E-2</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3383,7 +3533,7 @@
   <dimension ref="B1:I40"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3399,7 +3549,7 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3414,284 +3564,284 @@
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="16">
         <v>0.97950000000000004</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="17">
         <v>0.97958000000000001</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="17">
         <v>0.99356999999999995</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="17">
         <v>0.99356999999999995</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="17">
         <v>0.99356</v>
       </c>
-      <c r="H3" s="9">
-        <v>2.4674</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="17">
+        <v>2.4699</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="18">
         <v>12.339600000000001</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="19">
         <v>12.3416</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="19">
         <v>12.089</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="19">
         <v>12.0893</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="19">
         <v>12.086600000000001</v>
       </c>
-      <c r="H4" s="10">
-        <v>12.337</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="19">
+        <v>12.359400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="18">
         <v>16.8735</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="19">
         <v>17.1068</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="19">
         <v>15.596</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="19">
         <v>15.8912</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="19">
         <v>25.556100000000001</v>
       </c>
-      <c r="H5" s="10">
-        <v>22.206600000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="19">
+        <v>22.253900000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="18">
         <v>33.451599999999999</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="19">
         <v>34.060099999999998</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="19">
         <v>17.37</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="19">
         <v>16.883199999999999</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="19">
         <v>36.341700000000003</v>
       </c>
-      <c r="H6" s="10">
-        <v>32.0762</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="19">
+        <v>32.184100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="18">
         <v>42.587800000000001</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="19">
         <v>45.167700000000004</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="19">
         <v>25.634</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="19">
         <v>25.605899999999998</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="19">
         <v>57.954300000000003</v>
       </c>
-      <c r="H7" s="10">
-        <v>41.945799999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="19">
+        <v>42.088900000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="18">
         <v>51.039400000000001</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="19">
         <v>49.752499999999998</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="19">
         <v>37.048000000000002</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="19">
         <v>36.626899999999999</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="19">
         <v>91.914900000000003</v>
       </c>
-      <c r="H8" s="10">
-        <v>61.685000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="19">
+        <v>61.943100000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="18">
         <v>59.814999999999998</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="19">
         <v>59.408700000000003</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="19">
         <v>58.391599999999997</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="19">
         <v>58.134900000000002</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="19">
         <v>102.43770000000001</v>
       </c>
-      <c r="H9" s="10">
-        <v>61.685000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="19">
+        <v>61.943100000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="18">
         <v>74.686199999999999</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="19">
         <v>76.994500000000002</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="19">
         <v>91.915099999999995</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="19">
         <v>91.929500000000004</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="19">
         <v>108.66</v>
       </c>
-      <c r="H10" s="10">
-        <v>71.554599999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="19">
+        <v>71.954499999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="18">
         <v>88.037800000000004</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="19">
         <v>86.881200000000007</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="19">
         <v>103.246</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="19">
         <v>102.76900000000001</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="19">
         <v>126.098</v>
       </c>
-      <c r="H11" s="10">
-        <v>91.293800000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="19">
+        <v>91.839600000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="18">
         <v>92.110600000000005</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="19">
         <v>92.117900000000006</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="19">
         <v>108.589</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="19">
         <v>108.65</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="19">
         <v>159.8708</v>
       </c>
-      <c r="H12" s="10">
-        <v>101.1635</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="19">
+        <v>102.03019999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="18">
         <v>102.746</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="19">
         <v>102.425</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="19">
         <v>126.443</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="19">
         <v>126.19799999999999</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="19">
         <v>168.82140000000001</v>
       </c>
-      <c r="H13" s="10">
-        <v>111.0335</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="19">
+        <v>111.9787</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="18">
         <v>107.97490000000001</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="19">
         <v>108.03400000000001</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="19">
         <v>159.37</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="19">
         <v>159.76300000000001</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="19">
         <v>182.5951</v>
       </c>
-      <c r="H14" s="10">
-        <v>120.9027</v>
+      <c r="H14" s="19">
+        <v>121.77119999999999</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3699,7 +3849,7 @@
       <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3719,411 +3869,411 @@
       <c r="B17" s="5">
         <v>1</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <f>ABS((C3-$H3)/$H3)</f>
-        <v>0.60302342546810406</v>
-      </c>
-      <c r="D17" s="16">
+        <v>0.60342523988825458</v>
+      </c>
+      <c r="D17" s="15">
         <f t="shared" ref="D17:F17" si="0">ABS((D3-$H3)/$H3)</f>
-        <v>0.60299100267488048</v>
-      </c>
-      <c r="E17" s="16">
+        <v>0.60339284991295195</v>
+      </c>
+      <c r="E17" s="15">
         <f t="shared" si="0"/>
-        <v>0.59732106670989704</v>
-      </c>
-      <c r="F17" s="16">
+        <v>0.59772865298190203</v>
+      </c>
+      <c r="F17" s="15">
         <f t="shared" si="0"/>
-        <v>0.59732106670989704</v>
-      </c>
-      <c r="G17" s="16">
+        <v>0.59772865298190203</v>
+      </c>
+      <c r="G17" s="15">
         <f>ABS((G3-$H3)/$H3)</f>
-        <v>0.59732511955904999</v>
+        <v>0.59773270172881487</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5">
         <v>2</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <f t="shared" ref="C18:G18" si="1">ABS((C4-$H4)/$H4)</f>
-        <v>2.107481559537202E-4</v>
-      </c>
-      <c r="D18" s="16">
-        <f t="shared" si="1"/>
-        <v>3.7286212207181144E-4</v>
-      </c>
-      <c r="E18" s="16">
-        <f t="shared" si="1"/>
-        <v>2.0102131798654402E-2</v>
-      </c>
-      <c r="F18" s="16">
-        <f t="shared" si="1"/>
-        <v>2.0077814703736731E-2</v>
-      </c>
-      <c r="G18" s="16">
-        <f t="shared" si="1"/>
-        <v>2.0296668557996195E-2</v>
+        <v>1.6020195155104647E-3</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="1"/>
+        <v>1.4401993624286896E-3</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="1"/>
+        <v>2.1878084696668156E-2</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="1"/>
+        <v>2.1853811673705932E-2</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="1"/>
+        <v>2.2072268880366373E-2</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
         <v>3</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <f t="shared" ref="C19:G19" si="2">ABS((C5-$H5)/$H5)</f>
-        <v>0.24015833130690881</v>
-      </c>
-      <c r="D19" s="16">
+        <v>0.24177335208660061</v>
+      </c>
+      <c r="D19" s="15">
         <f t="shared" si="2"/>
-        <v>0.22965244566930559</v>
-      </c>
-      <c r="E19" s="16">
+        <v>0.23128979639523864</v>
+      </c>
+      <c r="E19" s="15">
         <f t="shared" si="2"/>
-        <v>0.29768627345023557</v>
-      </c>
-      <c r="F19" s="16">
+        <v>0.29917902030655308</v>
+      </c>
+      <c r="F19" s="15">
         <f t="shared" si="2"/>
-        <v>0.28439292822854473</v>
-      </c>
-      <c r="G19" s="16">
+        <v>0.28591392969322238</v>
+      </c>
+      <c r="G19" s="15">
         <f t="shared" si="2"/>
-        <v>0.15083353597579094</v>
+        <v>0.14838747365630289</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5">
         <v>4</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <f t="shared" ref="C20:G20" si="3">ABS((C6-$H6)/$H6)</f>
-        <v>4.2879144038258869E-2</v>
-      </c>
-      <c r="D20" s="16">
+        <v>3.9382800824009315E-2</v>
+      </c>
+      <c r="D20" s="15">
         <f t="shared" si="3"/>
-        <v>6.1849595650357539E-2</v>
-      </c>
-      <c r="E20" s="16">
+        <v>5.8289652343859161E-2</v>
+      </c>
+      <c r="E20" s="15">
         <f t="shared" si="3"/>
-        <v>0.45847700163984506</v>
-      </c>
-      <c r="F20" s="16">
+        <v>0.46029250468398991</v>
+      </c>
+      <c r="F20" s="15">
         <f t="shared" si="3"/>
-        <v>0.47365336292952409</v>
-      </c>
-      <c r="G20" s="16">
+        <v>0.47541798589986989</v>
+      </c>
+      <c r="G20" s="15">
         <f t="shared" si="3"/>
-        <v>0.13298021586098113</v>
+        <v>0.12918180095140153</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5">
         <v>5</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <f t="shared" ref="C21:G21" si="4">ABS((C7-$H7)/$H7)</f>
-        <v>1.5305465624687169E-2</v>
-      </c>
-      <c r="D21" s="16">
+        <v>1.1853481559270948E-2</v>
+      </c>
+      <c r="D21" s="15">
         <f t="shared" si="4"/>
-        <v>7.6811027564142417E-2</v>
-      </c>
-      <c r="E21" s="16">
+        <v>7.3149927890726552E-2</v>
+      </c>
+      <c r="E21" s="15">
         <f t="shared" si="4"/>
-        <v>0.38887802831272733</v>
-      </c>
-      <c r="F21" s="16">
+        <v>0.3909558102017397</v>
+      </c>
+      <c r="F21" s="15">
         <f t="shared" si="4"/>
-        <v>0.38954794043742164</v>
-      </c>
-      <c r="G21" s="16">
+        <v>0.39162344466118154</v>
+      </c>
+      <c r="G21" s="15">
         <f t="shared" si="4"/>
-        <v>0.38164726861807391</v>
+        <v>0.37694974209352111</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="5">
         <v>6</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <f t="shared" ref="C22:G22" si="5">ABS((C8-$H8)/$H8)</f>
-        <v>0.17258004377077088</v>
-      </c>
-      <c r="D22" s="16">
+        <v>0.17602767701325894</v>
+      </c>
+      <c r="D22" s="15">
         <f t="shared" si="5"/>
-        <v>0.19344249007051964</v>
-      </c>
-      <c r="E22" s="16">
+        <v>0.1968031951904248</v>
+      </c>
+      <c r="E22" s="15">
         <f t="shared" si="5"/>
-        <v>0.39940017832536273</v>
-      </c>
-      <c r="F22" s="16">
+        <v>0.40190271394231153</v>
+      </c>
+      <c r="F22" s="15">
         <f t="shared" si="5"/>
-        <v>0.40622679743859935</v>
-      </c>
-      <c r="G22" s="16">
+        <v>0.40870088839596341</v>
+      </c>
+      <c r="G22" s="15">
         <f t="shared" si="5"/>
-        <v>0.4900688984356002</v>
+        <v>0.48386018781752932</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
         <v>7</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <f t="shared" ref="C23:G23" si="6">ABS((C9-$H9)/$H9)</f>
-        <v>3.0315311664099936E-2</v>
-      </c>
-      <c r="D23" s="16">
+        <v>3.4355723236325006E-2</v>
+      </c>
+      <c r="D23" s="15">
         <f t="shared" si="6"/>
-        <v>3.6902002107481541E-2</v>
-      </c>
-      <c r="E23" s="16">
+        <v>4.0914968737438037E-2</v>
+      </c>
+      <c r="E23" s="15">
         <f t="shared" si="6"/>
-        <v>5.3390613601361846E-2</v>
-      </c>
-      <c r="F23" s="16">
+        <v>5.7334876685216016E-2</v>
+      </c>
+      <c r="F23" s="15">
         <f t="shared" si="6"/>
-        <v>5.7552079111615473E-2</v>
-      </c>
-      <c r="G23" s="16">
+        <v>6.1479002503910835E-2</v>
+      </c>
+      <c r="G23" s="15">
         <f t="shared" si="6"/>
-        <v>0.66065818270243981</v>
+        <v>0.65373867307254574</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5">
         <v>8</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <f t="shared" ref="C24:G24" si="7">ABS((C10-$H10)/$H10)</f>
-        <v>4.3765180715146283E-2</v>
-      </c>
-      <c r="D24" s="16">
+        <v>3.7964269086714575E-2</v>
+      </c>
+      <c r="D24" s="15">
         <f t="shared" si="7"/>
-        <v>7.6024462438473689E-2</v>
-      </c>
-      <c r="E24" s="16">
+        <v>7.0044264083552896E-2</v>
+      </c>
+      <c r="E24" s="15">
         <f t="shared" si="7"/>
-        <v>0.28454494889217469</v>
-      </c>
-      <c r="F24" s="16">
+        <v>0.27740586064804845</v>
+      </c>
+      <c r="F24" s="15">
         <f t="shared" si="7"/>
-        <v>0.28474619381563188</v>
-      </c>
-      <c r="G24" s="16">
+        <v>0.27760598711685869</v>
+      </c>
+      <c r="G24" s="15">
         <f t="shared" si="7"/>
-        <v>0.51856065158634113</v>
+        <v>0.51012097922993005</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="5">
         <v>9</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <f t="shared" ref="C25:G25" si="8">ABS((C11-$H11)/$H11)</f>
-        <v>3.5665072545999842E-2</v>
-      </c>
-      <c r="D25" s="16">
+        <v>4.1396086219887718E-2</v>
+      </c>
+      <c r="D25" s="15">
         <f t="shared" si="8"/>
-        <v>4.8334059925208471E-2</v>
-      </c>
-      <c r="E25" s="16">
+        <v>5.3989782185462451E-2</v>
+      </c>
+      <c r="E25" s="15">
         <f t="shared" si="8"/>
-        <v>0.13092017201606232</v>
-      </c>
-      <c r="F25" s="16">
+        <v>0.1241991472088292</v>
+      </c>
+      <c r="F25" s="15">
         <f t="shared" si="8"/>
-        <v>0.12569528270265889</v>
-      </c>
-      <c r="G25" s="16">
+        <v>0.11900530925657342</v>
+      </c>
+      <c r="G25" s="15">
         <f t="shared" si="8"/>
-        <v>0.3812328986196214</v>
+        <v>0.37302427275380112</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="5">
         <v>10</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="15">
         <f t="shared" ref="C26:G26" si="9">ABS((C12-$H12)/$H12)</f>
-        <v>8.9487809338348254E-2</v>
-      </c>
-      <c r="D26" s="16">
+        <v>9.7222194997167402E-2</v>
+      </c>
+      <c r="D26" s="15">
         <f t="shared" si="9"/>
-        <v>8.9415648924760352E-2</v>
-      </c>
-      <c r="E26" s="16">
+        <v>9.7150647553371342E-2</v>
+      </c>
+      <c r="E26" s="15">
         <f t="shared" si="9"/>
-        <v>7.3400979602326916E-2</v>
-      </c>
-      <c r="F26" s="16">
+        <v>6.4282927995828743E-2</v>
+      </c>
+      <c r="F26" s="15">
         <f t="shared" si="9"/>
-        <v>7.4003963880253321E-2</v>
-      </c>
-      <c r="G26" s="16">
+        <v>6.4880790197412261E-2</v>
+      </c>
+      <c r="G26" s="15">
         <f t="shared" si="9"/>
-        <v>0.58032096556564372</v>
+        <v>0.56689685994930927</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="5">
         <v>11</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="15">
         <f t="shared" ref="C27:G27" si="10">ABS((C13-$H13)/$H13)</f>
-        <v>7.463963578559632E-2</v>
-      </c>
-      <c r="D27" s="16">
+        <v>8.2450501747207347E-2</v>
+      </c>
+      <c r="D27" s="15">
         <f t="shared" si="10"/>
-        <v>7.7530655162631149E-2</v>
-      </c>
-      <c r="E27" s="16">
+        <v>8.5317118344828136E-2</v>
+      </c>
+      <c r="E27" s="15">
         <f t="shared" si="10"/>
-        <v>0.13878243953401445</v>
-      </c>
-      <c r="F27" s="16">
+        <v>0.12917010109958407</v>
+      </c>
+      <c r="F27" s="15">
         <f t="shared" si="10"/>
-        <v>0.13657589826493796</v>
-      </c>
-      <c r="G27" s="16">
+        <v>0.12698218500482672</v>
+      </c>
+      <c r="G27" s="15">
         <f t="shared" si="10"/>
-        <v>0.52045463756433874</v>
+        <v>0.50762064571208632</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="5">
         <v>12</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <f t="shared" ref="C28:G28" si="11">ABS((C14-$H14)/$H14)</f>
-        <v>0.10692730600722722</v>
-      </c>
-      <c r="D28" s="16">
+        <v>0.11329690435833752</v>
+      </c>
+      <c r="D28" s="15">
         <f t="shared" si="11"/>
-        <v>0.10643848317696784</v>
-      </c>
-      <c r="E28" s="16">
+        <v>0.11281156792410675</v>
+      </c>
+      <c r="E28" s="15">
         <f t="shared" si="11"/>
-        <v>0.31816741892447409</v>
-      </c>
-      <c r="F28" s="16">
+        <v>0.30876594794171375</v>
+      </c>
+      <c r="F28" s="15">
         <f t="shared" si="11"/>
-        <v>0.3214179666789907</v>
-      </c>
-      <c r="G28" s="16">
+        <v>0.31199331204751218</v>
+      </c>
+      <c r="G28" s="15">
         <f t="shared" si="11"/>
-        <v>0.51026486587975295</v>
+        <v>0.49949331204751218</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4137,7 +4287,7 @@
   <dimension ref="B1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="H3" sqref="H3:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4153,7 +4303,7 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4172,280 +4322,280 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="16">
         <v>8.6106400000000001</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="17">
         <v>8.5450999999999997</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="17">
         <v>8.5914000000000001</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="17">
         <v>8.5450999999999997</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="17">
         <v>8.5146499999999996</v>
       </c>
-      <c r="H3" s="3">
-        <v>9.8696000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="21">
+        <v>19.739100000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="18">
         <v>18.16</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="19">
         <v>17.870999999999999</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="19">
         <v>18.134640000000001</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="19">
         <v>17.870999999999999</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="19">
         <v>17.6999</v>
       </c>
-      <c r="H4" s="3">
-        <v>19.7392</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="22">
+        <v>49.347799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="18">
         <v>18.282800000000002</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="19">
         <v>17.8873</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="19">
         <v>18.145569999999999</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="19">
         <v>17.8873</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="19">
         <v>17.72035</v>
       </c>
-      <c r="H5" s="3">
-        <v>19.7392</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="22">
+        <v>49.347799999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="18">
         <v>45.031100000000002</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="19">
         <v>44.038499999999999</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="19">
         <v>44.666739999999997</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="19">
         <v>44.037999999999997</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="19">
         <v>43.63456</v>
       </c>
-      <c r="H6" s="3">
-        <v>39.478400000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="22">
+        <v>78.955600000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="18">
         <v>59.651899999999998</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="19">
         <v>58.988100000000003</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="19">
         <v>59.533479999999997</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="19">
         <v>58.988</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="19">
         <v>58.631639999999997</v>
       </c>
-      <c r="H7" s="3">
-        <v>59.217599999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="22">
+        <v>98.694299999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="18">
         <v>61.829099999999997</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="19">
         <v>61.169199999999996</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="19">
         <v>61.954560000000001</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="19">
         <v>61.168999999999997</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="19">
         <v>60.636119999999998</v>
       </c>
-      <c r="H8" s="3">
-        <v>59.217599999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="22">
+        <v>98.694299999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="18">
         <v>82.689700000000002</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="19">
         <v>81.416899999999998</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="19">
         <v>82.412499999999994</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="19">
         <v>81.416899999999998</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="19">
         <v>80.771940000000001</v>
       </c>
-      <c r="H9" s="3">
-        <v>78.956800000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="22">
+        <v>128.3032</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="18">
         <v>83.783900000000003</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="19">
         <v>81.561800000000005</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="19">
         <v>82.510999999999996</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="19">
         <v>81.561800000000005</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="19">
         <v>80.954170000000005</v>
       </c>
-      <c r="H10" s="3">
-        <v>78.956800000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="22">
+        <v>128.3032</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="18">
         <v>106.41930000000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="19">
         <v>105.4033</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="19">
         <v>106.6581</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="19">
         <v>105.4033</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="19">
         <v>104.5291</v>
       </c>
-      <c r="H11" s="3">
-        <v>108.5656</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="22">
+        <v>167.94059999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="18">
         <v>106.5278</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="19">
         <v>105.4156</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="19">
         <v>106.6665</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="19">
         <v>105.41330000000001</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="19">
         <v>104.5446</v>
       </c>
-      <c r="H12" s="3">
-        <v>108.5656</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="22">
+        <v>167.94059999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="18">
         <v>135.04310000000001</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="19">
         <v>131.96809999999999</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="19">
         <v>133.58340000000001</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="19">
         <v>131.96799999999999</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="19">
         <v>130.91640000000001</v>
       </c>
-      <c r="H13" s="3">
-        <v>128.3049</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="22">
+        <v>177.6515</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="18">
         <v>138.15600000000001</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="19">
         <v>135.20910000000001</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="19">
         <v>136.7063</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="19">
         <v>135.20910000000001</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="19">
         <v>134.20570000000001</v>
       </c>
-      <c r="H14" s="3">
-        <v>128.3049</v>
+      <c r="H14" s="22">
+        <v>197.3912</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4453,7 +4603,7 @@
       <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -4473,411 +4623,411 @@
       <c r="B17" s="5">
         <v>1</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <f>ABS((C3-$H3)/$H3)</f>
-        <v>0.12755937424009078</v>
-      </c>
-      <c r="D17" s="16">
+        <v>0.56377747718994287</v>
+      </c>
+      <c r="D17" s="15">
         <f t="shared" ref="D17:F17" si="0">ABS((D3-$H3)/$H3)</f>
-        <v>0.13419996757720681</v>
-      </c>
-      <c r="E17" s="16">
+        <v>0.56709779067941302</v>
+      </c>
+      <c r="E17" s="15">
         <f t="shared" si="0"/>
-        <v>0.12950879468266191</v>
-      </c>
-      <c r="F17" s="16">
+        <v>0.56475219234919527</v>
+      </c>
+      <c r="F17" s="15">
         <f t="shared" si="0"/>
-        <v>0.13419996757720681</v>
-      </c>
-      <c r="G17" s="16">
+        <v>0.56709779067941302</v>
+      </c>
+      <c r="G17" s="15">
         <f>ABS((G3-$H3)/$H3)</f>
-        <v>0.13728519899489347</v>
+        <v>0.56864041420328182</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5">
         <v>2</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <f t="shared" ref="C18:G28" si="1">ABS((C4-$H4)/$H4)</f>
-        <v>8.0003242279322373E-2</v>
-      </c>
-      <c r="D18" s="16">
-        <f t="shared" si="1"/>
-        <v>9.4644159844370676E-2</v>
-      </c>
-      <c r="E18" s="16">
-        <f t="shared" si="1"/>
-        <v>8.1287995460808907E-2</v>
-      </c>
-      <c r="F18" s="16">
-        <f t="shared" si="1"/>
-        <v>9.4644159844370676E-2</v>
-      </c>
-      <c r="G18" s="16">
-        <f t="shared" si="1"/>
-        <v>0.10331219097025213</v>
+        <v>0.63199980546245227</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="1"/>
+        <v>0.63785619622353984</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="1"/>
+        <v>0.63251370881781965</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="1"/>
+        <v>0.63785619622353984</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="1"/>
+        <v>0.64132342272603848</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
         <v>3</v>
       </c>
-      <c r="C19" s="16">
-        <f t="shared" si="1"/>
-        <v>7.3782118829537086E-2</v>
-      </c>
-      <c r="D19" s="16">
-        <f t="shared" si="1"/>
-        <v>9.381839182945613E-2</v>
-      </c>
-      <c r="E19" s="16">
-        <f t="shared" si="1"/>
-        <v>8.073427494528658E-2</v>
-      </c>
-      <c r="F19" s="16">
-        <f t="shared" si="1"/>
-        <v>9.381839182945613E-2</v>
-      </c>
-      <c r="G19" s="16">
-        <f t="shared" si="1"/>
-        <v>0.1022761814055281</v>
+      <c r="C19" s="15">
+        <f t="shared" si="1"/>
+        <v>0.62951134599718728</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" si="1"/>
+        <v>0.63752588767888341</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" si="1"/>
+        <v>0.63229221971394878</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="1"/>
+        <v>0.63752588767888341</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="1"/>
+        <v>0.64090901722062588</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5">
         <v>4</v>
       </c>
-      <c r="C20" s="16">
-        <f t="shared" si="1"/>
-        <v>0.14065159682256631</v>
-      </c>
-      <c r="D20" s="16">
-        <f t="shared" si="1"/>
-        <v>0.11550873388992458</v>
-      </c>
-      <c r="E20" s="16">
-        <f t="shared" si="1"/>
-        <v>0.13142224608900047</v>
-      </c>
-      <c r="F20" s="16">
-        <f t="shared" si="1"/>
-        <v>0.11549606873632154</v>
-      </c>
-      <c r="G20" s="16">
-        <f t="shared" si="1"/>
-        <v>0.10527680959714679</v>
+      <c r="C20" s="15">
+        <f t="shared" si="1"/>
+        <v>0.42966553354036952</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" si="1"/>
+        <v>0.44223715607252689</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="1"/>
+        <v>0.43428027904290517</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="1"/>
+        <v>0.44224348874557351</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="1"/>
+        <v>0.4473531959734332</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5">
         <v>5</v>
       </c>
-      <c r="C21" s="16">
-        <f t="shared" si="1"/>
-        <v>7.3339682797006357E-3</v>
-      </c>
-      <c r="D21" s="16">
-        <f t="shared" si="1"/>
-        <v>3.8755370025126737E-3</v>
-      </c>
-      <c r="E21" s="16">
-        <f t="shared" si="1"/>
-        <v>5.3342249601469821E-3</v>
-      </c>
-      <c r="F21" s="16">
-        <f t="shared" si="1"/>
-        <v>3.8772256896597939E-3</v>
-      </c>
-      <c r="G21" s="16">
-        <f t="shared" si="1"/>
-        <v>9.8950312069384788E-3</v>
+      <c r="C21" s="15">
+        <f t="shared" si="1"/>
+        <v>0.39558920829267752</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="1"/>
+        <v>0.40231502731160762</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="1"/>
+        <v>0.39678907495164362</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="1"/>
+        <v>0.4023160405413484</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="1"/>
+        <v>0.40592678604539473</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="5">
         <v>6</v>
       </c>
-      <c r="C22" s="16">
-        <f t="shared" si="1"/>
-        <v>4.4100064845586442E-2</v>
-      </c>
-      <c r="D22" s="16">
-        <f t="shared" si="1"/>
-        <v>3.2956418362108546E-2</v>
-      </c>
-      <c r="E22" s="16">
-        <f t="shared" si="1"/>
-        <v>4.6218691740293485E-2</v>
-      </c>
-      <c r="F22" s="16">
-        <f t="shared" si="1"/>
-        <v>3.295304098781443E-2</v>
-      </c>
-      <c r="G22" s="16">
-        <f t="shared" si="1"/>
-        <v>2.3954364918537748E-2</v>
+      <c r="C22" s="15">
+        <f t="shared" si="1"/>
+        <v>0.37352917037762062</v>
+      </c>
+      <c r="D22" s="15">
+        <f t="shared" si="1"/>
+        <v>0.38021547343666251</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="1"/>
+        <v>0.37225797234490743</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="1"/>
+        <v>0.38021749989614395</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="1"/>
+        <v>0.38561679853851744</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
         <v>7</v>
       </c>
-      <c r="C23" s="16">
-        <f t="shared" si="1"/>
-        <v>4.7277751884574865E-2</v>
-      </c>
-      <c r="D23" s="16">
-        <f t="shared" si="1"/>
-        <v>3.1157544378698186E-2</v>
-      </c>
-      <c r="E23" s="16">
-        <f t="shared" si="1"/>
-        <v>4.3766971305827906E-2</v>
-      </c>
-      <c r="F23" s="16">
-        <f t="shared" si="1"/>
-        <v>3.1157544378698186E-2</v>
-      </c>
-      <c r="G23" s="16">
-        <f t="shared" si="1"/>
-        <v>2.2989026910918368E-2</v>
+      <c r="C23" s="15">
+        <f t="shared" si="1"/>
+        <v>0.35551334651045335</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" si="1"/>
+        <v>0.36543359791493901</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="1"/>
+        <v>0.35767385380879047</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="1"/>
+        <v>0.36543359791493901</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="1"/>
+        <v>0.3704604405813729</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5">
         <v>8</v>
       </c>
-      <c r="C24" s="16">
-        <f t="shared" si="1"/>
-        <v>6.1135962956958757E-2</v>
-      </c>
-      <c r="D24" s="16">
-        <f t="shared" si="1"/>
-        <v>3.29927251357705E-2</v>
-      </c>
-      <c r="E24" s="16">
-        <f t="shared" si="1"/>
-        <v>4.5014488935721741E-2</v>
-      </c>
-      <c r="F24" s="16">
-        <f t="shared" si="1"/>
-        <v>3.29927251357705E-2</v>
-      </c>
-      <c r="G24" s="16">
-        <f t="shared" si="1"/>
-        <v>2.5296997851989994E-2</v>
+      <c r="C24" s="15">
+        <f t="shared" si="1"/>
+        <v>0.3469851102700478</v>
+      </c>
+      <c r="D24" s="15">
+        <f t="shared" si="1"/>
+        <v>0.36430424182717186</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="1"/>
+        <v>0.3569061410783208</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="1"/>
+        <v>0.36430424182717186</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="1"/>
+        <v>0.36904013305981453</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="5">
         <v>9</v>
       </c>
-      <c r="C25" s="16">
-        <f t="shared" si="1"/>
-        <v>1.9769613947696107E-2</v>
-      </c>
-      <c r="D25" s="16">
-        <f t="shared" si="1"/>
-        <v>2.9128011082700245E-2</v>
-      </c>
-      <c r="E25" s="16">
-        <f t="shared" si="1"/>
-        <v>1.7570022180138079E-2</v>
-      </c>
-      <c r="F25" s="16">
-        <f t="shared" si="1"/>
-        <v>2.9128011082700245E-2</v>
-      </c>
-      <c r="G25" s="16">
-        <f t="shared" si="1"/>
-        <v>3.7180285467956736E-2</v>
+      <c r="C25" s="15">
+        <f t="shared" si="1"/>
+        <v>0.36632773730711921</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" si="1"/>
+        <v>0.37237749537634135</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="1"/>
+        <v>0.36490580598140049</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="1"/>
+        <v>0.37237749537634135</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="1"/>
+        <v>0.37758290728983934</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="5">
         <v>10</v>
       </c>
-      <c r="C26" s="16">
-        <f t="shared" si="1"/>
-        <v>1.8770218190660801E-2</v>
-      </c>
-      <c r="D26" s="16">
-        <f t="shared" si="1"/>
-        <v>2.9014715526833598E-2</v>
-      </c>
-      <c r="E26" s="16">
-        <f t="shared" si="1"/>
-        <v>1.7492649605399906E-2</v>
-      </c>
-      <c r="F26" s="16">
-        <f t="shared" si="1"/>
-        <v>2.9035900874678503E-2</v>
-      </c>
-      <c r="G26" s="16">
-        <f t="shared" si="1"/>
-        <v>3.703751464552308E-2</v>
+      <c r="C26" s="15">
+        <f t="shared" si="1"/>
+        <v>0.36568167554480568</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" si="1"/>
+        <v>0.37230425519499155</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="1"/>
+        <v>0.36485578829657628</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="1"/>
+        <v>0.37231795051345529</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="1"/>
+        <v>0.37749061275236595</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="5">
         <v>11</v>
       </c>
-      <c r="C27" s="16">
-        <f t="shared" si="1"/>
-        <v>5.2517090150103432E-2</v>
-      </c>
-      <c r="D27" s="16">
-        <f t="shared" si="1"/>
-        <v>2.8550741242150447E-2</v>
-      </c>
-      <c r="E27" s="16">
-        <f t="shared" si="1"/>
-        <v>4.1140283808334739E-2</v>
-      </c>
-      <c r="F27" s="16">
-        <f t="shared" si="1"/>
-        <v>2.8549961848690002E-2</v>
-      </c>
-      <c r="G27" s="16">
-        <f t="shared" si="1"/>
-        <v>2.03538602189005E-2</v>
+      <c r="C27" s="15">
+        <f t="shared" si="1"/>
+        <v>0.23984261320619296</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" si="1"/>
+        <v>0.25715178312595166</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="1"/>
+        <v>0.24805926209460649</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="1"/>
+        <v>0.25715234602578652</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="1"/>
+        <v>0.26307180068842645</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="5">
         <v>12</v>
       </c>
-      <c r="C28" s="16">
-        <f t="shared" si="1"/>
-        <v>7.6778829179555905E-2</v>
-      </c>
-      <c r="D28" s="16">
-        <f t="shared" si="1"/>
-        <v>5.3810883294402652E-2</v>
-      </c>
-      <c r="E28" s="16">
-        <f t="shared" si="1"/>
-        <v>6.547996218382926E-2</v>
-      </c>
-      <c r="F28" s="16">
-        <f t="shared" si="1"/>
-        <v>5.3810883294402652E-2</v>
-      </c>
-      <c r="G28" s="16">
-        <f t="shared" si="1"/>
-        <v>4.5990449312536028E-2</v>
+      <c r="C28" s="15">
+        <f t="shared" si="1"/>
+        <v>0.30009037890240292</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" si="1"/>
+        <v>0.31501961586940042</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" si="1"/>
+        <v>0.30743467793903678</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="1"/>
+        <v>0.31501961586940042</v>
+      </c>
+      <c r="G28" s="15">
+        <f t="shared" si="1"/>
+        <v>0.32010292252136868</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
